--- a/NRI_STLF_Data/WeatherData/T_shiraz/T_shiraz90.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_shiraz/T_shiraz90.xlsx
@@ -31,11 +31,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -366,13 +366,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="F335" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>90</v>
       </c>
@@ -449,7 +449,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>90</v>
       </c>
@@ -514,7 +514,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>90</v>
       </c>
@@ -591,7 +591,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>90</v>
       </c>
@@ -668,7 +668,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>90</v>
       </c>
@@ -745,7 +745,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>90</v>
       </c>
@@ -822,7 +822,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>90</v>
       </c>
@@ -899,7 +899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>90</v>
       </c>
@@ -964,7 +964,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>90</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>90</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>90</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>90</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>90</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>90</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>90</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>90</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>90</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>90</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>90</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>90</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>90</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>90</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>90</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>90</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>90</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>90</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>90</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>90</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>90</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>90</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>90</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>90</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>90</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>90</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>90</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>90</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>90</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>90</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>90</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>90</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>90</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>90</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>90</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>90</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>90</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>90</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>90</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>90</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>90</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>90</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>90</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>90</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>90</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>90</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>90</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>90</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>90</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>90</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>90</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>90</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>90</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>90</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>90</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>90</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>90</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>90</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>90</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>90</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>90</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>90</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>90</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>90</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>90</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>90</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>90</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>90</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>90</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>90</v>
       </c>
@@ -6158,15 +6158,6 @@
       <c r="E78">
         <v>1</v>
       </c>
-      <c r="F78">
-        <v>36</v>
-      </c>
-      <c r="G78">
-        <v>27</v>
-      </c>
-      <c r="H78">
-        <v>18</v>
-      </c>
       <c r="X78">
         <v>0</v>
       </c>
@@ -6174,7 +6165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>90</v>
       </c>
@@ -6251,7 +6242,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>90</v>
       </c>
@@ -6328,7 +6319,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>90</v>
       </c>
@@ -6405,7 +6396,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>90</v>
       </c>
@@ -6482,7 +6473,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>90</v>
       </c>
@@ -6559,7 +6550,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>90</v>
       </c>
@@ -6636,7 +6627,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>90</v>
       </c>
@@ -6713,7 +6704,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>90</v>
       </c>
@@ -6790,7 +6781,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>90</v>
       </c>
@@ -6855,7 +6846,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>90</v>
       </c>
@@ -6920,7 +6911,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>90</v>
       </c>
@@ -6997,7 +6988,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>90</v>
       </c>
@@ -7074,7 +7065,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7139,7 +7130,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7216,7 +7207,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>90</v>
       </c>
@@ -7281,7 +7272,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>90</v>
       </c>
@@ -7346,7 +7337,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>90</v>
       </c>
@@ -7411,7 +7402,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>90</v>
       </c>
@@ -7488,7 +7479,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>90</v>
       </c>
@@ -7565,7 +7556,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>90</v>
       </c>
@@ -7642,7 +7633,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>90</v>
       </c>
@@ -7719,7 +7710,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>90</v>
       </c>
@@ -7796,7 +7787,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>90</v>
       </c>
@@ -7873,7 +7864,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>90</v>
       </c>
@@ -7950,7 +7941,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>90</v>
       </c>
@@ -8027,7 +8018,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>90</v>
       </c>
@@ -8104,7 +8095,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>90</v>
       </c>
@@ -8181,7 +8172,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>90</v>
       </c>
@@ -8258,7 +8249,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>90</v>
       </c>
@@ -8335,7 +8326,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>90</v>
       </c>
@@ -8412,7 +8403,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>90</v>
       </c>
@@ -8489,7 +8480,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>90</v>
       </c>
@@ -8566,7 +8557,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>90</v>
       </c>
@@ -8631,7 +8622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>90</v>
       </c>
@@ -8696,7 +8687,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>90</v>
       </c>
@@ -8773,7 +8764,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>90</v>
       </c>
@@ -8850,7 +8841,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>90</v>
       </c>
@@ -8927,7 +8918,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>90</v>
       </c>
@@ -9004,7 +8995,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>90</v>
       </c>
@@ -9081,7 +9072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>90</v>
       </c>
@@ -9158,7 +9149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>90</v>
       </c>
@@ -9235,7 +9226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>90</v>
       </c>
@@ -9312,7 +9303,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>90</v>
       </c>
@@ -9392,7 +9383,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>90</v>
       </c>
@@ -9469,7 +9460,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>90</v>
       </c>
@@ -9546,7 +9537,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>90</v>
       </c>
@@ -9623,7 +9614,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>90</v>
       </c>
@@ -9700,7 +9691,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>90</v>
       </c>
@@ -9777,7 +9768,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>90</v>
       </c>
@@ -9854,7 +9845,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>90</v>
       </c>
@@ -9931,7 +9922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>90</v>
       </c>
@@ -10008,7 +9999,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>90</v>
       </c>
@@ -10073,7 +10064,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>90</v>
       </c>
@@ -10138,7 +10129,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>90</v>
       </c>
@@ -10203,7 +10194,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>90</v>
       </c>
@@ -10268,7 +10259,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>90</v>
       </c>
@@ -10333,7 +10324,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>90</v>
       </c>
@@ -10398,7 +10389,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>90</v>
       </c>
@@ -10463,7 +10454,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>90</v>
       </c>
@@ -10528,7 +10519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>90</v>
       </c>
@@ -10593,7 +10584,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>90</v>
       </c>
@@ -10670,7 +10661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>90</v>
       </c>
@@ -10747,7 +10738,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>90</v>
       </c>
@@ -10824,7 +10815,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>90</v>
       </c>
@@ -10901,7 +10892,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>90</v>
       </c>
@@ -10978,7 +10969,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>90</v>
       </c>
@@ -11055,7 +11046,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>90</v>
       </c>
@@ -11132,7 +11123,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>90</v>
       </c>
@@ -11197,7 +11188,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>90</v>
       </c>
@@ -11262,7 +11253,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>90</v>
       </c>
@@ -11327,7 +11318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>90</v>
       </c>
@@ -11404,7 +11395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>90</v>
       </c>
@@ -11481,7 +11472,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>90</v>
       </c>
@@ -11558,7 +11549,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>90</v>
       </c>
@@ -11635,7 +11626,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>90</v>
       </c>
@@ -11712,7 +11703,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>90</v>
       </c>
@@ -11789,7 +11780,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>90</v>
       </c>
@@ -11866,7 +11857,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>90</v>
       </c>
@@ -11943,7 +11934,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>90</v>
       </c>
@@ -12020,7 +12011,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>90</v>
       </c>
@@ -12097,7 +12088,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>90</v>
       </c>
@@ -12174,7 +12165,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>90</v>
       </c>
@@ -12251,7 +12242,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>90</v>
       </c>
@@ -12316,7 +12307,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>90</v>
       </c>
@@ -12393,7 +12384,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>90</v>
       </c>
@@ -12470,7 +12461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>90</v>
       </c>
@@ -12547,7 +12538,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>90</v>
       </c>
@@ -12624,7 +12615,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>90</v>
       </c>
@@ -12689,7 +12680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>90</v>
       </c>
@@ -12754,7 +12745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>90</v>
       </c>
@@ -12819,7 +12810,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>90</v>
       </c>
@@ -12884,7 +12875,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>90</v>
       </c>
@@ -12949,7 +12940,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>90</v>
       </c>
@@ -13014,7 +13005,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>90</v>
       </c>
@@ -13079,7 +13070,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>90</v>
       </c>
@@ -13144,7 +13135,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>90</v>
       </c>
@@ -13221,7 +13212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>90</v>
       </c>
@@ -13298,7 +13289,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>90</v>
       </c>
@@ -13375,7 +13366,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>90</v>
       </c>
@@ -13452,7 +13443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>90</v>
       </c>
@@ -13529,7 +13520,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>90</v>
       </c>
@@ -13606,7 +13597,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>90</v>
       </c>
@@ -13671,7 +13662,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>90</v>
       </c>
@@ -13736,7 +13727,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>90</v>
       </c>
@@ -13801,7 +13792,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>90</v>
       </c>
@@ -13866,7 +13857,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>90</v>
       </c>
@@ -13943,7 +13934,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>90</v>
       </c>
@@ -14020,7 +14011,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>90</v>
       </c>
@@ -14097,7 +14088,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>90</v>
       </c>
@@ -14162,7 +14153,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>90</v>
       </c>
@@ -14239,7 +14230,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>90</v>
       </c>
@@ -14316,7 +14307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>90</v>
       </c>
@@ -14396,7 +14387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>90</v>
       </c>
@@ -14473,7 +14464,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>90</v>
       </c>
@@ -14550,7 +14541,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>90</v>
       </c>
@@ -14627,7 +14618,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>90</v>
       </c>
@@ -14704,7 +14695,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>90</v>
       </c>
@@ -14781,7 +14772,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>90</v>
       </c>
@@ -14858,7 +14849,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>90</v>
       </c>
@@ -14923,7 +14914,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>90</v>
       </c>
@@ -14988,7 +14979,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>90</v>
       </c>
@@ -15053,7 +15044,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>90</v>
       </c>
@@ -15118,7 +15109,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>90</v>
       </c>
@@ -15183,7 +15174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>90</v>
       </c>
@@ -15260,7 +15251,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>90</v>
       </c>
@@ -15325,7 +15316,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>90</v>
       </c>
@@ -15402,7 +15393,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>90</v>
       </c>
@@ -15479,7 +15470,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>90</v>
       </c>
@@ -15556,7 +15547,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>90</v>
       </c>
@@ -15633,7 +15624,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>90</v>
       </c>
@@ -15710,7 +15701,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>90</v>
       </c>
@@ -15775,7 +15766,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>90</v>
       </c>
@@ -15840,7 +15831,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>90</v>
       </c>
@@ -15905,7 +15896,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>90</v>
       </c>
@@ -15970,7 +15961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>90</v>
       </c>
@@ -16035,7 +16026,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>90</v>
       </c>
@@ -16100,7 +16091,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>90</v>
       </c>
@@ -16165,7 +16156,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>90</v>
       </c>
@@ -16230,7 +16221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>90</v>
       </c>
@@ -16295,7 +16286,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>90</v>
       </c>
@@ -16360,7 +16351,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>90</v>
       </c>
@@ -16437,7 +16428,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>90</v>
       </c>
@@ -16514,7 +16505,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>90</v>
       </c>
@@ -16591,7 +16582,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>90</v>
       </c>
@@ -16668,7 +16659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>90</v>
       </c>
@@ -16745,7 +16736,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>90</v>
       </c>
@@ -16822,7 +16813,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>90</v>
       </c>
@@ -16899,7 +16890,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>90</v>
       </c>
@@ -16979,7 +16970,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>90</v>
       </c>
@@ -17056,7 +17047,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>90</v>
       </c>
@@ -17121,7 +17112,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>90</v>
       </c>
@@ -17186,7 +17177,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>90</v>
       </c>
@@ -17263,7 +17254,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>90</v>
       </c>
@@ -17343,7 +17334,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>90</v>
       </c>
@@ -17423,7 +17414,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>90</v>
       </c>
@@ -17488,7 +17479,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>90</v>
       </c>
@@ -17553,7 +17544,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>90</v>
       </c>
@@ -17618,7 +17609,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>90</v>
       </c>
@@ -17683,7 +17674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>90</v>
       </c>
@@ -17757,7 +17748,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>90</v>
       </c>
@@ -17834,7 +17825,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>90</v>
       </c>
@@ -17911,7 +17902,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>90</v>
       </c>
@@ -17988,7 +17979,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>90</v>
       </c>
@@ -18065,7 +18056,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>90</v>
       </c>
@@ -18142,7 +18133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>90</v>
       </c>
@@ -18222,7 +18213,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>90</v>
       </c>
@@ -18299,7 +18290,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>90</v>
       </c>
@@ -18376,7 +18367,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>90</v>
       </c>
@@ -18456,7 +18447,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>90</v>
       </c>
@@ -18536,7 +18527,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>90</v>
       </c>
@@ -18613,7 +18604,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>90</v>
       </c>
@@ -18690,7 +18681,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>90</v>
       </c>
@@ -18767,7 +18758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>90</v>
       </c>
@@ -18844,7 +18835,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>90</v>
       </c>
@@ -18921,7 +18912,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>90</v>
       </c>
@@ -18998,7 +18989,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>90</v>
       </c>
@@ -19078,7 +19069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>90</v>
       </c>
@@ -19158,7 +19149,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>90</v>
       </c>
@@ -19235,7 +19226,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>90</v>
       </c>
@@ -19300,7 +19291,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>90</v>
       </c>
@@ -19365,7 +19356,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>90</v>
       </c>
@@ -19442,7 +19433,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>90</v>
       </c>
@@ -19507,7 +19498,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>90</v>
       </c>
@@ -19572,7 +19563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>90</v>
       </c>
@@ -19637,7 +19628,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>90</v>
       </c>
@@ -19702,7 +19693,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>90</v>
       </c>
@@ -19767,7 +19758,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>90</v>
       </c>
@@ -19832,7 +19823,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>90</v>
       </c>
@@ -19906,7 +19897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>90</v>
       </c>
@@ -19980,7 +19971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>90</v>
       </c>
@@ -20057,7 +20048,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>90</v>
       </c>
@@ -20122,7 +20113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>90</v>
       </c>
@@ -20187,7 +20178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>90</v>
       </c>
@@ -20261,7 +20252,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>90</v>
       </c>
@@ -20341,7 +20332,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>90</v>
       </c>
@@ -20406,7 +20397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>90</v>
       </c>
@@ -20471,7 +20462,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>90</v>
       </c>
@@ -20536,7 +20527,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>90</v>
       </c>
@@ -20601,7 +20592,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>90</v>
       </c>
@@ -20666,7 +20657,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>90</v>
       </c>
@@ -20743,7 +20734,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>90</v>
       </c>
@@ -20820,7 +20811,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>90</v>
       </c>
@@ -20897,7 +20888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>90</v>
       </c>
@@ -20974,7 +20965,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>90</v>
       </c>
@@ -21039,7 +21030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>90</v>
       </c>
@@ -21104,7 +21095,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>90</v>
       </c>
@@ -21181,7 +21172,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>90</v>
       </c>
@@ -21246,7 +21237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>90</v>
       </c>
@@ -21311,7 +21302,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>90</v>
       </c>
@@ -21388,7 +21379,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>90</v>
       </c>
@@ -21468,7 +21459,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>90</v>
       </c>
@@ -21545,7 +21536,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>90</v>
       </c>
@@ -21622,7 +21613,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>90</v>
       </c>
@@ -21699,7 +21690,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>90</v>
       </c>
@@ -21764,7 +21755,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>90</v>
       </c>
@@ -21841,7 +21832,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>90</v>
       </c>
@@ -21921,7 +21912,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>90</v>
       </c>
@@ -22001,7 +21992,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>90</v>
       </c>
@@ -22078,7 +22069,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>90</v>
       </c>
@@ -22158,7 +22149,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>90</v>
       </c>
@@ -22238,7 +22229,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>90</v>
       </c>
@@ -22318,7 +22309,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>90</v>
       </c>
@@ -22395,7 +22386,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>90</v>
       </c>
@@ -22460,7 +22451,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>90</v>
       </c>
@@ -22525,7 +22516,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>90</v>
       </c>
@@ -22590,7 +22581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>90</v>
       </c>
@@ -22655,7 +22646,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>90</v>
       </c>
@@ -22720,7 +22711,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>90</v>
       </c>
@@ -22797,7 +22788,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>90</v>
       </c>
@@ -22874,7 +22865,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>90</v>
       </c>
@@ -22939,7 +22930,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>90</v>
       </c>
@@ -23016,7 +23007,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>90</v>
       </c>
@@ -23081,7 +23072,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>90</v>
       </c>
@@ -23146,7 +23137,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>90</v>
       </c>
@@ -23223,7 +23214,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>90</v>
       </c>
@@ -23300,7 +23291,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>90</v>
       </c>
@@ -23377,7 +23368,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>90</v>
       </c>
@@ -23457,7 +23448,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>90</v>
       </c>
@@ -23522,7 +23513,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>90</v>
       </c>
@@ -23602,7 +23593,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>90</v>
       </c>
@@ -23682,7 +23673,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>90</v>
       </c>
@@ -23762,7 +23753,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>90</v>
       </c>
@@ -23839,7 +23830,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>90</v>
       </c>
@@ -23904,7 +23895,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>90</v>
       </c>
@@ -23981,7 +23972,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>90</v>
       </c>
@@ -24058,7 +24049,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>90</v>
       </c>
@@ -24123,7 +24114,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>90</v>
       </c>
@@ -24200,7 +24191,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>90</v>
       </c>
@@ -24280,7 +24271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>90</v>
       </c>
@@ -24357,7 +24348,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>90</v>
       </c>
@@ -24434,7 +24425,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>90</v>
       </c>
@@ -24499,7 +24490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>90</v>
       </c>
@@ -24576,7 +24567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>90</v>
       </c>
@@ -24653,7 +24644,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>90</v>
       </c>
@@ -24730,7 +24721,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>90</v>
       </c>
@@ -24810,7 +24801,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>90</v>
       </c>
@@ -24890,7 +24881,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>90</v>
       </c>
@@ -24970,7 +24961,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>90</v>
       </c>
@@ -25047,7 +25038,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>90</v>
       </c>
@@ -25112,7 +25103,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>90</v>
       </c>
@@ -25189,7 +25180,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>90</v>
       </c>
@@ -25266,7 +25257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>90</v>
       </c>
@@ -25331,7 +25322,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>90</v>
       </c>
@@ -25408,7 +25399,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>90</v>
       </c>
@@ -25491,7 +25482,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>90</v>
       </c>
@@ -25571,7 +25562,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>90</v>
       </c>
@@ -25636,7 +25627,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>90</v>
       </c>
@@ -25713,7 +25704,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>90</v>
       </c>
@@ -25790,7 +25781,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>90</v>
       </c>
@@ -25867,7 +25858,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>90</v>
       </c>
@@ -25944,7 +25935,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>90</v>
       </c>
@@ -26024,7 +26015,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>90</v>
       </c>
@@ -26089,7 +26080,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>90</v>
       </c>
@@ -26166,7 +26157,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>90</v>
       </c>
@@ -26231,7 +26222,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>90</v>
       </c>
@@ -26296,7 +26287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>90</v>
       </c>
@@ -26361,7 +26352,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>90</v>
       </c>
@@ -26426,7 +26417,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>90</v>
       </c>
@@ -26491,7 +26482,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>90</v>
       </c>
@@ -26556,7 +26547,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>90</v>
       </c>
@@ -26621,7 +26612,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>90</v>
       </c>
@@ -26701,7 +26692,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>90</v>
       </c>
@@ -26778,7 +26769,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>90</v>
       </c>
@@ -26855,7 +26846,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>90</v>
       </c>
@@ -26935,7 +26926,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>90</v>
       </c>
@@ -27012,7 +27003,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>90</v>
       </c>
@@ -27089,7 +27080,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>90</v>
       </c>
@@ -27177,7 +27168,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27189,7 +27180,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
